--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_016.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_016.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295023AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Inadvertent criticality</t>
-  </si>
-  <si>
-    <t>(295006AA2.03) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295025EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) RFCS</t>
-  </si>
-  <si>
-    <t>(295016AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Disabling/transferring control room controls</t>
-  </si>
-  <si>
-    <t>(295001AK2.04) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295026EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Pump NPSH</t>
-  </si>
-  <si>
-    <t>(295024EA2.08) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell radiation levels</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295003AA1.08) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Station blackout instrumentation</t>
-  </si>
-  <si>
-    <t>(295031EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Core submergence</t>
-  </si>
-  <si>
-    <t>(700000AK2.07) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295027EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Equipment environmental qualifications</t>
-  </si>
-  <si>
-    <t>(295037EA2.08) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) SCRAM discharge volume level</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(295005AA1.04) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Main turbine generator and auxiliaries</t>
-  </si>
-  <si>
-    <t>(295030EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) HPCI shutdown</t>
-  </si>
-  <si>
-    <t>(295004AK2.02) Knowledge of the relationship between the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER and the following systems or components: (CFR: 41.7 / 45.8) Batteries</t>
-  </si>
-  <si>
-    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
-  </si>
-  <si>
-    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295035EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.7 / 45.6) Secondary containment ventilation</t>
-  </si>
-  <si>
-    <t>(295009AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295020AK2.10) Knowledge of the relationship between the (APE 20) INADVERTENT CONTAINMENT ISOLATION and the following systems or components: (CFR: 41.7 / 45.8) Drywell equipment/floor drain sumps</t>
+    <t>(295019AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Alignment of backup air systems</t>
+  </si>
+  <si>
+    <t>(295004AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Redundant DC power supplies</t>
+  </si>
+  <si>
+    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(600000AA2.10) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit of long-term-breathing air system for control room</t>
+  </si>
+  <si>
+    <t>(295003AA1.01) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295025EK2.08) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295006AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Direct turbine generator trip</t>
+  </si>
+  <si>
+    <t>(295027EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Primary containment integrity</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AA2.01) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Power/flow map</t>
+  </si>
+  <si>
+    <t>(295038EA1.14) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Offgas system</t>
+  </si>
+  <si>
+    <t>(295018AK2.03) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295016AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Turbine trip</t>
+  </si>
+  <si>
+    <t>(295023AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Shutdown margin</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295005AA2.03) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine valve position</t>
+  </si>
+  <si>
+    <t>(295037EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Redundant reactivity control system</t>
+  </si>
+  <si>
+    <t>(295024EK2.17) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Secondary containment/auxiliary building isolation</t>
+  </si>
+  <si>
+    <t>(295031EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Steam cooling</t>
+  </si>
+  <si>
+    <t>(295026EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Suppression pool cooling</t>
+  </si>
+  <si>
+    <t>(295017AA2.02) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Total number of curies released or release rate/duration</t>
+  </si>
+  <si>
+    <t>(295036EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.7 / 45.6 / 45.8) Systems for emergency depressurization</t>
+  </si>
+  <si>
+    <t>(295029EK2.03) Knowledge of the relationship between the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
+  </si>
+  <si>
+    <t>(295012AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.5 / 45.6) Venting</t>
   </si>
   <si>
     <t>(295034EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.8 to 41.10) Radiation releases</t>
   </si>
   <si>
-    <t>(295017AA2.01) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Offsite release rate</t>
-  </si>
-  <si>
-    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(400000A4.01) Ability to manually operate and/or monitor the (SF8 CCS) COMPONENT COOLING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) CCW indications and control</t>
-  </si>
-  <si>
-    <t>(211000A3.06) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) RWCU system isolation</t>
-  </si>
-  <si>
-    <t>(218000A2.03) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of pneumatic supply to ADS valves</t>
-  </si>
-  <si>
-    <t>(264000K2.04) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Ignition system (jet engine)</t>
-  </si>
-  <si>
-    <t>(215005K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RBMS</t>
-  </si>
-  <si>
-    <t>(217000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) Electrical power</t>
-  </si>
-  <si>
-    <t>(262002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Static switch/inverter operation</t>
-  </si>
-  <si>
-    <t>(209002K4.08) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic system initiation</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(300000K3.22) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Offgas system</t>
-  </si>
-  <si>
-    <t>(259002A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) TDRFP speed</t>
-  </si>
-  <si>
-    <t>(209001A4.07) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Keep fill pump</t>
-  </si>
-  <si>
-    <t>(262001A3.06) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Tap changers</t>
-  </si>
-  <si>
-    <t>(261000A2.15) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High area radiation by refuel bridge</t>
-  </si>
-  <si>
-    <t>(263000K2.03) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Battery chargers</t>
-  </si>
-  <si>
-    <t>(239002K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrument system</t>
-  </si>
-  <si>
-    <t>(510000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.7 / 45.7) Entry/discharge path blockage</t>
-  </si>
-  <si>
-    <t>(203000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) NPSH limits</t>
-  </si>
-  <si>
-    <t>(205000K4.05) Knowledge of (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) design features and/or interlocks that provide for the following: (CFR: 41.7) Cooldown rate</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (291002K1.11) SENSORS AND DETECTORS (CFR: 41.7) (PRESSURE) Effects of operating environment (pressure, temperature, or radiation)</t>
-  </si>
-  <si>
-    <t>(215004K3.02) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RMCS (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(212000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) RPS bus status</t>
-  </si>
-  <si>
-    <t>(400000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Control rod drive hydraulic system</t>
-  </si>
-  <si>
-    <t>(211000A3.09) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
-  </si>
-  <si>
-    <t>(218000A2.04) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS failure to initiate</t>
-  </si>
-  <si>
-    <t>(264000K2.06) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) Battery charger</t>
-  </si>
-  <si>
-    <t>(239003K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(230000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.5 / 45.5) Suppression pool temperature</t>
+    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(209001K2.03) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Initiation logic</t>
+  </si>
+  <si>
+    <t>(262001K4.03) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic bus transfer</t>
+  </si>
+  <si>
+    <t>(400000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.5 / 45.3) Determine source(s) of RCS leakage into CCW</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(211000A3.08) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) System initiation</t>
+  </si>
+  <si>
+    <t>(218000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) AC power</t>
+  </si>
+  <si>
+    <t>(215003A4.06) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Detector drives</t>
+  </si>
+  <si>
+    <t>(223002K1.25) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(209002A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Diesel loading</t>
+  </si>
+  <si>
+    <t>(215004A2.03) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck detector</t>
+  </si>
+  <si>
+    <t>(239002K3.02) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor overpressurization</t>
+  </si>
+  <si>
+    <t>(510000K2.01) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system pumps (Class 1E)</t>
+  </si>
+  <si>
+    <t>(259002K4.13) Knowledge of (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) FWRV lockup</t>
+  </si>
+  <si>
+    <t>(264000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Load sequencing</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (291004K1.20) PUMPS (CFR: 41.3) (POSITIVE DISPLACEMENT) Discuss relationship among head, flow, speed, and power</t>
+  </si>
+  <si>
+    <t>(203000A3.07) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Loop selection</t>
+  </si>
+  <si>
+    <t>(262002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(217000A4.14) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Resetting isolations</t>
+  </si>
+  <si>
+    <t>(300000K1.26) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(263000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Battery charging/discharging rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215005A2.08) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/systems </t>
+  </si>
+  <si>
+    <t>(205000K3.02) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(209001K2.02) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
+  </si>
+  <si>
+    <t>(262001K4.09) Knowledge of (SF6 AC) AC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Divisional separation</t>
+  </si>
+  <si>
+    <t>(400000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 to 45.8) Loads cooled by CCW</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(223001A2.10) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High drywell temperature</t>
+  </si>
+  <si>
+    <t>(256000K3.11) Knowledge of the effect that a loss or malfunction of the (SF2 CDS) CONDENSATE SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t>(268000K2.01) (SF9 RW) RADWASTE SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Radiological release isolation valves</t>
+  </si>
+  <si>
+    <t>(239001K4.09) Knowledge of (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Equalization of pressure across the MSIVs before opening</t>
+  </si>
+  <si>
+    <t>(241000K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.5 / 45.3) Valve position control</t>
+  </si>
+  <si>
+    <t>(234000) (SF8 FH) FUEL HANDLING (291006K1.04) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Effects of heat exchanger flow rates that are too high or too low and methods of proper flow adjustment</t>
+  </si>
+  <si>
+    <t>(271000A3.06) Ability to monitor automatic operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.7 / 45.7) System differential pressure control</t>
+  </si>
+  <si>
+    <t>(216000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.7 / 45.7) Instrument channels</t>
   </si>
   <si>
     <t>(233000A4.02) Ability to manually operate and/or monitor the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP in the control room: (CFR: 41.7 / 45.5 to 45.8) Fuel pool cooling system valves</t>
   </si>
   <si>
-    <t>(259001A3.04) Ability to monitor automatic operation of the (SF2 FWS) FEEDWATER SYSTEM including: (CFR: 41.7 / 45.7) Reactor water level</t>
-  </si>
-  <si>
-    <t>(290003A2.04) Ability to (a) predict the impacts of the following on the (SF9 CRV) CONTROL ROOM VENTILATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Initiation/failure of fire protection system</t>
-  </si>
-  <si>
-    <t>(219000K2.03) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Valve control logic</t>
-  </si>
-  <si>
-    <t>(201001K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 CRDH) CRD HYDRAULIC SYSTEM and the following systems: (CFR: 41.1-3 to 41.5-8 / 45.1-6 / 45.8) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(202002K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM: (CFR: 41.7 / 45.7) Flow control valves</t>
-  </si>
-  <si>
-    <t>(290001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 SC) SECONDARY CONTAINMENT: (CFR: 41.5 / 45.3) Vacuum breaker operation (BWR 4)</t>
-  </si>
-  <si>
-    <t>(245000K4.02) Knowledge of (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS design features and/or interlocks that provide for the following: (CFR: 41.7) Generator cooling</t>
-  </si>
-  <si>
-    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+    <t>(290002K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Isolation condenser system (Nine Mile Point 1, Dresden)</t>
+  </si>
+  <si>
+    <t>(201003A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM including: (CFR: 41.1-6 / 45.1-6) CRD mechanism temperature</t>
+  </si>
+  <si>
+    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292004K1.03) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain resonance absorption</t>
+  </si>
+  <si>
+    <t>(292001K1.03) NEUTRONS (CFR: 41.1) Define thermal neutrons</t>
+  </si>
+  <si>
+    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
+  </si>
+  <si>
+    <t>(293007K1.03) HEAT TRANSFER (CFR: 41.14) (HEAT TRANSFER) Explain the manner in which fluid films affects heat</t>
+  </si>
+  <si>
+    <t>(293008K1.07) THERMAL HYDRAULICS (CFR: 41.14) (POOL BOILING CURVE (TEMPERATURE VS. HEAT FLUX)) Define nucleate boiling, subcooled nucleate boiling, and bulk boiling</t>
+  </si>
+  <si>
+    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295021AA2.04) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water temperature</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295006AA2.06) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Cause of reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295014AA2.06) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Cold water injection</t>
+  </si>
+  <si>
+    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(295008AA2.04) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Heatup rate</t>
+  </si>
+  <si>
+    <t>(211000A2.01) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trip</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(215003A2.02) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) IRM inoperable condition</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(209002A2.21) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent initiation</t>
+  </si>
+  <si>
+    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(272000A2.13) Ability to (a) predict the impacts of the following on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low reactor water level during refueling operations</t>
+  </si>
+  <si>
+    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292008K1.18) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Describe the means by which reactor power will be increased to rated power</t>
-  </si>
-  <si>
-    <t>(292005K1.06) CONTROL RODS (CFR: 41.1) Define reactor SCRAM/trip</t>
-  </si>
-  <si>
-    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
-  </si>
-  <si>
-    <t>(293003K1.12) STEAM (CFR: 41.14) Define the following term: Quality</t>
-  </si>
-  <si>
-    <t>(293010K1.03) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) Define reference temperature</t>
-  </si>
-  <si>
-    <t>(293009K1.34) CORE THERMAL LIMITS (CFR: 41.14) (PELLET-CLAD INTERACTION) Identify the possible effects of fuel densification</t>
-  </si>
-  <si>
-    <t>(295023AA2.03) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Airborne contamination levels</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(295018AA2.06) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Surge tank level</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295016AA2.01) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295007AA2.01) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295033EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Area radiation levels </t>
-  </si>
-  <si>
-    <t>(215005A2.10) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Changes in void concentration</t>
-  </si>
-  <si>
-    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(262002A2.01) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal voltage</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(215003A2.04) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Upscale or downscale trips</t>
-  </si>
-  <si>
-    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(268000A2.04) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Radiological release isolation valve failure</t>
-  </si>
-  <si>
-    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>K1</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
     <t>K2</t>
   </si>
   <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
     <t>295023</t>
   </si>
   <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295001</t>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295031</t>
   </si>
   <si>
     <t>295026</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295009</t>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295034</t>
   </si>
   <si>
     <t>295020</t>
   </si>
   <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295010</t>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>262001</t>
   </si>
   <si>
     <t>400000</t>
   </si>
   <si>
+    <t>261000</t>
+  </si>
+  <si>
     <t>211000</t>
   </si>
   <si>
     <t>218000</t>
   </si>
   <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
     <t>264000</t>
   </si>
   <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
     <t>215005</t>
   </si>
   <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
     <t>205000</t>
   </si>
   <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>212000</t>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>272000</t>
   </si>
   <si>
     <t>239003</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>239001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1582,7 +1582,7 @@
         <v>3.1</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D43" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1701,7 +1701,7 @@
         <v>3.4</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1769,7 +1769,7 @@
         <v>3.5</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1786,7 +1786,7 @@
         <v>3.7</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
         <v>107</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D80" t="s">
         <v>107</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
         <v>107</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D85" t="s">
         <v>107</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D88" t="s">
         <v>107</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="D90" t="s">
         <v>107</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D94" t="s">
         <v>107</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
